--- a/Accessories.xlsx
+++ b/Accessories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taola\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071BBEA8-6A7E-43BE-BC54-70101B87C841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8875F-8E2F-4087-BCFE-C374141C63C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="540" windowWidth="13980" windowHeight="10050" xr2:uid="{7CF7E1EF-6CE9-42F2-861B-A633CD3DB83D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Xanh lam, trắng</t>
   </si>
   <si>
-    <t>Vải bông</t>
-  </si>
-  <si>
     <t>Khăn lau chân 2</t>
   </si>
   <si>
@@ -80,13 +77,25 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
+    <t>Thể loại</t>
+  </si>
+  <si>
+    <t>Sạc</t>
+  </si>
+  <si>
+    <t>Tai nghe</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Ốp lưng Iphone</t>
+  </si>
+  <si>
+    <t>dsffff22</t>
+  </si>
+  <si>
+    <t>saa2222â</t>
   </si>
 </sst>
 </file>
@@ -142,18 +151,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D4F76F53-C606-4965-AB61-1474E06DDE84}" name="Table8" displayName="Table8" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27" xr:uid="{D4F76F53-C606-4965-AB61-1474E06DDE84}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D4F76F53-C606-4965-AB61-1474E06DDE84}" name="Table8" displayName="Table8" ref="A1:G27" totalsRowShown="0">
+  <autoFilter ref="A1:G27" xr:uid="{D4F76F53-C606-4965-AB61-1474E06DDE84}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5E722948-8AB9-48B0-8934-04BDF877A285}" name="Tên sản phẩm"/>
     <tableColumn id="2" xr3:uid="{94860172-A889-45D4-B974-BD44DFC9B4B6}" name="Số lượng"/>
     <tableColumn id="3" xr3:uid="{DB010FF2-76EC-4702-A7F2-3C897FCBA336}" name="Màu sắc"/>
     <tableColumn id="4" xr3:uid="{52D71635-AAC5-43BF-9102-1A11DD16FC13}" name="Giá"/>
     <tableColumn id="5" xr3:uid="{DCF15270-F7EB-4402-9F86-F9080A45BBE8}" name="Hình ảnh"/>
     <tableColumn id="6" xr3:uid="{C0B6FB72-1E1C-45CF-8F1B-0D315BA8814B}" name="Ghi chú"/>
-    <tableColumn id="7" xr3:uid="{ACE55890-065A-4C01-ABD4-3418A69BFCF4}" name="Column1"/>
-    <tableColumn id="8" xr3:uid="{ECB86CE9-DB16-43BC-AC7A-82F61CF30BF1}" name="Column2"/>
-    <tableColumn id="9" xr3:uid="{E36BEF8D-AA15-4326-B4E2-94D576933E83}" name="Column3"/>
+    <tableColumn id="7" xr3:uid="{ACE55890-065A-4C01-ABD4-3418A69BFCF4}" name="Thể loại"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6755BF4-44A7-4AA5-92EA-12961720442B}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,13 +476,11 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,25 +491,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -523,8 +522,11 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -541,10 +543,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -561,12 +566,15 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
       </c>
       <c r="B5">
         <v>45</v>
@@ -581,15 +589,17 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{FD43A287-98F9-4DC9-883E-97A832A10DBD}">
-      <formula1>"Khăn khách sạn,Khăn rửa mặt, Khăn tắm, Khăn lau, Khăn nhà nghỉ, Khăn khách sạn"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{54B05E5D-209F-4D7B-BA1C-A57D02AEA636}">
+      <formula1>"Sạc, Tai nghe, Ốp lưng Iphone"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27" xr:uid="{58E1DF7A-3886-45BF-97B9-530CB8A26471}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
